--- a/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Historico.xlsx
+++ b/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Historico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\Tasa de Xenofobia\Tasa Xenofobia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E3D5E2-E810-47FC-9DD2-8BA36036E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5074163-7CC7-426C-B0D3-CBCF2CA97723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1831,19 +1832,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D22"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44921.208333333343</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>0.2175480769230769</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44928.208333333343</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>0.1705336426914153</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44935.208333333343</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>0.13293202909455731</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44942.208333333343</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>0.14442506923787049</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44949.208333333343</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>8.5832777901207136E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44956.208333333343</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>0.108167770419426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44963.208333333343</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>9.8548580937413324E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44970.208333333343</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>0.12847086429409471</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44977.208333333343</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>9.1294925049665882E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44984.208333333343</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>9.7144787970941032E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44991.208333333343</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>0.14761813292354969</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44998.208333333343</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>0.14159981306955369</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45005.208333333343</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>0.100852429978966</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45012.208333333343</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>0.118208516886931</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45019.208333333343</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>8.5890160623256703E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45026.208333333343</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>0.10393498716852009</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45033.208333333343</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>8.2345536557222279E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45040.208333333343</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>9.128301342185019E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45047.208333333343</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>9.3529277739804059E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45054.208333333343</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>8.0146290491118072E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45061.208333333343</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>8.5781000368686244E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45068.208333333343</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>0.1024819855884708</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45075.208333333343</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>8.9765788754214898E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45082.208333333343</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>0.1070582662245381</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45089.208333333343</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>8.7847730600292828E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45096.208333333343</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>8.2176327664005552E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45103.208333333343</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>0.20244023904382469</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45110.208333333343</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>7.2641201436500158E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45117.208333333343</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>0.1058708119529128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45124.208333333343</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>7.0427101061674366E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45131.208333333343</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>0.1130854318663215</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45138.208333333343</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>0.1031094527363184</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45145.208333333343</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>0.1121892055791389</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45152.208333333343</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>0.21724524076147819</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45159.208333333343</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>0.13129362839744541</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45166.208333333343</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>9.4810863239573231E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45173.208333333343</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>0.1901282675759052</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45180.208333333343</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>0.1211887302199923</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45187.208333333343</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>0.24247064828994391</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45194.208333333343</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>0.19334135579622941</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45201.208333333343</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>0.15243460764587519</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45208.208333333343</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>0.13005334914048611</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45215.208333333343</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>9.0830923161103735E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45222.208333333343</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>0.10523782014249949</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45229.208333333343</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>0.15604539502400699</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45236.208333333343</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>0.1779084727072229</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45243.208333333343</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>0.1102114561027837</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45250.208333333343</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>0.1362862010221465</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45257.208333333343</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>0.13236431111798361</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45264.208333333343</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>0.1074715069649641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45271.208333333343</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>0.12878521126760559</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>45278.208333333343</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>0.1067981210963712</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45285.208333333343</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>0.16524676850763809</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45292.208333333343</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>0.1229258381307145</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45299.208333333343</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>0.13717385688452599</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45306.208333333343</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>0.1172599966256116</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45313.208333333343</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>0.18282428589093611</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45320.208333333343</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>0.1302646861055077</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45327.208333333343</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>0.13908984830805141</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>45334.208333333343</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>0.1235942607057781</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>45341.208333333343</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>0.13257374081567461</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>45348.208333333343</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>0.16784993160945741</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45355.208333333343</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>0.1301654453426003</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>45362.208333333343</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>0.1352588646578991</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45369.208333333343</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>0.12468532504072261</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>45376.208333333343</v>
       </c>
@@ -3197,12 +3198,12 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44921.208333333343</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>0.19230769230769229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44928.208333333343</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>0.22184589331075361</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44935.208333333343</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>0.1494708994708995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44942.208333333343</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>0.22315789473684211</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44949.208333333343</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>7.4303405572755415E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44956.208333333343</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>0.19810795770728989</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44963.208333333343</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>0.21256210078069551</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44970.208333333343</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>0.44163763066202089</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44977.208333333343</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>0.1537410317731466</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44984.208333333343</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>0.19389830508474579</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44991.208333333343</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>0.13227354529094179</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44998.208333333343</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>0.22232794164287981</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45005.208333333343</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>0.23501997336884151</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45012.208333333343</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>0.35192837465564741</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45019.208333333343</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>0.2831839966659721</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45026.208333333343</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>0.1537180910099889</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45033.208333333343</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>0.23127035830618889</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45040.208333333343</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>0.16042180839129461</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45047.208333333343</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>0.16738861386138609</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45054.208333333343</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>0.1348122866894198</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45061.208333333343</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>0.10489766081871341</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45068.208333333343</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>0.14581893572909471</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45075.208333333343</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>0.1582172701949861</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45082.208333333343</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>0.14932614555256071</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45089.208333333343</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>6.2190003815337659E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45096.208333333343</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>0.15880758807588069</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45103.208333333343</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>0.16495433789954339</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45110.208333333343</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>0.12631578947368419</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45117.208333333343</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>9.4214029697900672E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45124.208333333343</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>0.27665920954511558</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45131.208333333343</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>0.16820276497695849</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45138.208333333343</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>0.2047101449275362</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45145.208333333343</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>0.20317820658342789</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45152.208333333343</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0.2283687943262411</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45159.208333333343</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>0.1065192083818393</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45166.208333333343</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>0.29016913319238902</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45173.208333333343</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>0.11267150928167879</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45180.208333333343</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>0.24430871737923379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45187.208333333343</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>0.22791519434628979</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45194.208333333343</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>0.12694748990190419</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45201.208333333343</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>0.18341307814992031</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45208.208333333343</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>0.14552804446690251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45215.208333333343</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>0.1211913728175282</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45222.208333333343</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>0.22766821345707661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45229.208333333343</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>0.28385923905986238</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45236.208333333343</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>0.2121613942034476</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45243.208333333343</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>0.20025637373593511</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45250.208333333343</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>0.26198547215496371</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45257.208333333343</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>0.17304625199362039</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45264.208333333343</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>0.26887363746467502</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45271.208333333343</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>0.2114537444933921</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45278.208333333343</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>0.33468724614134848</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45285.208333333343</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>0.38867488443759629</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45292.208333333343</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>0.26822262118491919</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45299.208333333343</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>0.27103321033210331</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45306.208333333343</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>0.20511454448588171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45313.208333333343</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>0.1375757575757576</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45320.208333333343</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>0.1819551389353867</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45327.208333333343</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>0.15713437561844451</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45334.208333333343</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>0.13701484761656679</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45341.208333333343</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>0.21023665382498621</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45348.208333333343</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>0.1387618176273254</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45355.208333333343</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>0.15497076023391809</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45362.208333333343</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>0.33276450511945388</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45369.208333333343</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>0.11788617886178859</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45376.208333333343</v>
       </c>
@@ -4551,16 +4552,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44921.208333333343</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>0.25352112676056338</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44928.208333333343</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>0.19737417943107219</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44935.208333333343</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>0.1171390013495277</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44942.208333333343</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>0.36712683347713548</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44949.208333333343</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>0.11194903133532701</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44956.208333333343</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>0.10539437896645509</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44963.208333333343</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>0.14392857142857141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44970.208333333343</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>0.14517470881863559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44977.208333333343</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>0.1224096385542169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44984.208333333343</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>0.14022406938923021</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44991.208333333343</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>9.3954562957258375E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44998.208333333343</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>9.8226466575716237E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45005.208333333343</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>0.10289887143173269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45012.208333333343</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>0.14392298435619741</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45019.208333333343</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>8.9734255551510739E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45026.208333333343</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>0.1526943252265141</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45033.208333333343</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>0.1780985915492958</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45040.208333333343</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>8.8385826771653547E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45047.208333333343</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>8.5678391959798997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45054.208333333343</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>9.5558546433378203E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45061.208333333343</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>0.17950291500460261</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45068.208333333343</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>0.12836438923395449</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45075.208333333343</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>0.1064991807755325</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45082.208333333343</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>0.1053614297145906</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45089.208333333343</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>0.10336610068513551</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45096.208333333343</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>7.4212271973465999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45103.208333333343</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>7.859334434741562E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45110.208333333343</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>7.7634845407357253E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45117.208333333343</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>0.12790697674418611</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45124.208333333343</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>0.14024933214603741</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45131.208333333343</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>0.16126601356443099</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45138.208333333343</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>0.1250384024577573</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45145.208333333343</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>0.1040587219343696</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45152.208333333343</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>0.1708762082943561</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45159.208333333343</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>0.1166134185303514</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45166.208333333343</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>0.1014989293361884</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45173.208333333343</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>9.9724083563263691E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45180.208333333343</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>0.1029844472467423</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45187.208333333343</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>0.127587184576127</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45194.208333333343</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>0.13031071655041221</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45201.208333333343</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>0.1185635067335622</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45208.208333333343</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>0.1096381225367252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45215.208333333343</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>9.2564491654021239E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45222.208333333343</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>7.2631578947368422E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45229.208333333343</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>0.15713114237052919</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45236.208333333343</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>0.1165675446049278</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45243.208333333343</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>0.116504854368932</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45250.208333333343</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>0.2286402584248132</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45257.208333333343</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>0.1129381220250974</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45264.208333333343</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>0.19350649350649349</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45271.208333333343</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>0.1088215258855586</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45278.208333333343</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>0.17627920733510799</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45285.208333333343</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>0.30293587010004919</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45292.208333333343</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>0.16448068060971291</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45299.208333333343</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>0.14329268292682931</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45306.208333333343</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>0.15044675199227239</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45313.208333333343</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>0.1178131416837782</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45320.208333333343</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>0.1330547613811304</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45327.208333333343</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>9.1380122468205371E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45334.208333333343</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>0.1066945606694561</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45341.208333333343</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>0.1184556296745502</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45348.208333333343</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>0.12248865845755021</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45355.208333333343</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>0.14806924101198399</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45362.208333333343</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>0.1394230769230769</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45369.208333333343</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>0.1507706053160599</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45376.208333333343</v>
       </c>

--- a/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Historico.xlsx
+++ b/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Historico.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\Tasa de Xenofobia\Tasa Xenofobia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5074163-7CC7-426C-B0D3-CBCF2CA97723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
     <sheet name="Ecuador" sheetId="2" r:id="rId2"/>
     <sheet name="Peru" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,11 +39,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +54,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,1450 +95,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Colombia!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tasa Xenofobia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Colombia!$A$2:$A$67</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>44921.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44928.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44935.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44942.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44949.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44956.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44963.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44970.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44977.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44984.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44991.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44998.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45005.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45012.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45019.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45026.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45033.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45040.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45047.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45054.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45061.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45068.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45075.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45082.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45089.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45096.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45103.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45110.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45117.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45124.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45131.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45138.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45145.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45152.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45159.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45166.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45173.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45180.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45187.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45194.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45201.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45208.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45215.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45222.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45229.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45236.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45243.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45250.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45257.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45264.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45271.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45278.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45285.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45292.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45299.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45306.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45313.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45320.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45327.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45334.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45341.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>45348.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45355.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45362.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>45369.208333333343</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>45376.208333333343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Colombia!$F$2:$F$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>0.2175480769230769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1705336426914153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13293202909455731</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14442506923787049</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5832777901207136E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.108167770419426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8548580937413324E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12847086429409471</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.1294925049665882E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7144787970941032E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14761813292354969</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14159981306955369</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.100852429978966</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.118208516886931</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.5890160623256703E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10393498716852009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.2345536557222279E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.128301342185019E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.3529277739804059E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.0146290491118072E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.5781000368686244E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1024819855884708</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.9765788754214898E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1070582662245381</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.7847730600292828E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.2176327664005552E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.20244023904382469</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.2641201436500158E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.1058708119529128</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.0427101061674366E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.1130854318663215</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.1031094527363184</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.1121892055791389</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.21724524076147819</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.13129362839744541</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.4810863239573231E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.1901282675759052</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1211887302199923</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.24247064828994391</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.19334135579622941</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.15243460764587519</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.13005334914048611</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.0830923161103735E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.10523782014249949</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.15604539502400699</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1779084727072229</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1102114561027837</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.1362862010221465</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.13236431111798361</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.1074715069649641</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.12878521126760559</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.1067981210963712</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.16524676850763809</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.1229258381307145</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.13717385688452599</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.1172599966256116</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.18282428589093611</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.1302646861055077</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.13908984830805141</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.1235942607057781</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.13257374081567461</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.16784993160945741</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.1301654453426003</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.1352588646578991</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.12468532504072261</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.1212860690127579</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7023-4A98-B8AD-F1235365C5F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:upDownBars>
-          <c:gapWidth val="300"/>
-          <c:upBars>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="15000"/>
-                    <a:lumOff val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:upBars>
-          <c:downBars>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:downBars>
-        </c:upDownBars>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1335948447"/>
-        <c:axId val="1335973407"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1335948447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES" b="1"/>
-                  <a:t>SEMANAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1335973407"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1335973407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES" b="1"/>
-                  <a:t>TASA DE XENOFOBIA</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1335948447"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>256903</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>118654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>32658</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EA5A85-815B-6C03-679C-B4F1D8E361A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1829,23 +394,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1864,9 +421,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44921.208333333343</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>44921.20833333334</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1884,9 +441,9 @@
         <v>0.2175480769230769</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>44928.208333333343</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>44928.20833333334</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1904,9 +461,9 @@
         <v>0.1705336426914153</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44935.208333333343</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>44935.20833333334</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1921,12 +478,12 @@
         <v>1590</v>
       </c>
       <c r="F4">
-        <v>0.13293202909455731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>44942.208333333343</v>
+        <v>0.1329320290945573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>44942.20833333334</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1941,12 +498,12 @@
         <v>1408</v>
       </c>
       <c r="F5">
-        <v>0.14442506923787049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44949.208333333343</v>
+        <v>0.1444250692378705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>44949.20833333334</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1961,12 +518,12 @@
         <v>1159</v>
       </c>
       <c r="F6">
-        <v>8.5832777901207136E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44956.208333333343</v>
+        <v>0.08583277790120714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>44956.20833333334</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1984,9 +541,9 @@
         <v>0.108167770419426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44963.208333333343</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>44963.20833333334</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2001,12 +558,12 @@
         <v>1066</v>
       </c>
       <c r="F8">
-        <v>9.8548580937413324E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>44970.208333333343</v>
+        <v>0.09854858093741332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>44970.20833333334</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2021,12 +578,12 @@
         <v>1314</v>
       </c>
       <c r="F9">
-        <v>0.12847086429409471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44977.208333333343</v>
+        <v>0.1284708642940947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>44977.20833333334</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2041,12 +598,12 @@
         <v>1011</v>
       </c>
       <c r="F10">
-        <v>9.1294925049665882E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44984.208333333343</v>
+        <v>0.09129492504966588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>44984.20833333334</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2061,12 +618,12 @@
         <v>1150</v>
       </c>
       <c r="F11">
-        <v>9.7144787970941032E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44991.208333333343</v>
+        <v>0.09714478797094103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>44991.20833333334</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2081,12 +638,12 @@
         <v>1537</v>
       </c>
       <c r="F12">
-        <v>0.14761813292354969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44998.208333333343</v>
+        <v>0.1476181329235497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>44998.20833333334</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2101,12 +658,12 @@
         <v>1818</v>
       </c>
       <c r="F13">
-        <v>0.14159981306955369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45005.208333333343</v>
+        <v>0.1415998130695537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>45005.20833333334</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2124,9 +681,9 @@
         <v>0.100852429978966</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45012.208333333343</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>45012.20833333334</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2144,9 +701,9 @@
         <v>0.118208516886931</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45019.208333333343</v>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>45019.20833333334</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2161,12 +718,12 @@
         <v>893</v>
       </c>
       <c r="F16">
-        <v>8.5890160623256703E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45026.208333333343</v>
+        <v>0.0858901606232567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>45026.20833333334</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2181,12 +738,12 @@
         <v>972</v>
       </c>
       <c r="F17">
-        <v>0.10393498716852009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45033.208333333343</v>
+        <v>0.1039349871685201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>45033.20833333334</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2201,12 +758,12 @@
         <v>785</v>
       </c>
       <c r="F18">
-        <v>8.2345536557222279E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45040.208333333343</v>
+        <v>0.08234553655722228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>45040.20833333334</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2221,12 +778,12 @@
         <v>1265</v>
       </c>
       <c r="F19">
-        <v>9.128301342185019E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45047.208333333343</v>
+        <v>0.09128301342185019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>45047.20833333334</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2241,12 +798,12 @@
         <v>821</v>
       </c>
       <c r="F20">
-        <v>9.3529277739804059E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>45054.208333333343</v>
+        <v>0.09352927773980406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>45054.20833333334</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -2261,12 +818,12 @@
         <v>767</v>
       </c>
       <c r="F21">
-        <v>8.0146290491118072E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>45061.208333333343</v>
+        <v>0.08014629049111807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>45061.20833333334</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2281,12 +838,12 @@
         <v>698</v>
       </c>
       <c r="F22">
-        <v>8.5781000368686244E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>45068.208333333343</v>
+        <v>0.08578100036868624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>45068.20833333334</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2304,9 +861,9 @@
         <v>0.1024819855884708</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>45075.208333333343</v>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>45075.20833333334</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2321,12 +878,12 @@
         <v>985</v>
       </c>
       <c r="F24">
-        <v>8.9765788754214898E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>45082.208333333343</v>
+        <v>0.0897657887542149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>45082.20833333334</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2344,9 +901,9 @@
         <v>0.1070582662245381</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>45089.208333333343</v>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>45089.20833333334</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2361,12 +918,12 @@
         <v>720</v>
       </c>
       <c r="F26">
-        <v>8.7847730600292828E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>45096.208333333343</v>
+        <v>0.08784773060029283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>45096.20833333334</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2381,12 +938,12 @@
         <v>947</v>
       </c>
       <c r="F27">
-        <v>8.2176327664005552E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>45103.208333333343</v>
+        <v>0.08217632766400555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>45103.20833333334</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2401,12 +958,12 @@
         <v>2439</v>
       </c>
       <c r="F28">
-        <v>0.20244023904382469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>45110.208333333343</v>
+        <v>0.2024402390438247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>45110.20833333334</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2421,12 +978,12 @@
         <v>890</v>
       </c>
       <c r="F29">
-        <v>7.2641201436500158E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>45117.208333333343</v>
+        <v>0.07264120143650016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>45117.20833333334</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -2444,9 +1001,9 @@
         <v>0.1058708119529128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>45124.208333333343</v>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>45124.20833333334</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2461,12 +1018,12 @@
         <v>869</v>
       </c>
       <c r="F31">
-        <v>7.0427101061674366E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>45131.208333333343</v>
+        <v>0.07042710106167437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>45131.20833333334</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -2484,9 +1041,9 @@
         <v>0.1130854318663215</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>45138.208333333343</v>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>45138.20833333334</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -2504,9 +1061,9 @@
         <v>0.1031094527363184</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>45145.208333333343</v>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>45145.20833333334</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -2524,9 +1081,9 @@
         <v>0.1121892055791389</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>45152.208333333343</v>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>45152.20833333334</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -2541,12 +1098,12 @@
         <v>1746</v>
       </c>
       <c r="F35">
-        <v>0.21724524076147819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>45159.208333333343</v>
+        <v>0.2172452407614782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>45159.20833333334</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -2561,12 +1118,12 @@
         <v>884</v>
       </c>
       <c r="F36">
-        <v>0.13129362839744541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>45166.208333333343</v>
+        <v>0.1312936283974454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>45166.20833333334</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -2581,12 +1138,12 @@
         <v>782</v>
       </c>
       <c r="F37">
-        <v>9.4810863239573231E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>45173.208333333343</v>
+        <v>0.09481086323957323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>45173.20833333334</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -2604,9 +1161,9 @@
         <v>0.1901282675759052</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>45180.208333333343</v>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>45180.20833333334</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -2624,9 +1181,9 @@
         <v>0.1211887302199923</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>45187.208333333343</v>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>45187.20833333334</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -2641,12 +1198,12 @@
         <v>3325</v>
       </c>
       <c r="F40">
-        <v>0.24247064828994391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>45194.208333333343</v>
+        <v>0.2424706482899439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>45194.20833333334</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -2661,12 +1218,12 @@
         <v>1928</v>
       </c>
       <c r="F41">
-        <v>0.19334135579622941</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>45201.208333333343</v>
+        <v>0.1933413557962294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>45201.20833333334</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -2681,12 +1238,12 @@
         <v>1894</v>
       </c>
       <c r="F42">
-        <v>0.15243460764587519</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>45208.208333333343</v>
+        <v>0.1524346076458752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>45208.20833333334</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -2701,12 +1258,12 @@
         <v>1097</v>
       </c>
       <c r="F43">
-        <v>0.13005334914048611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>45215.208333333343</v>
+        <v>0.1300533491404861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>45215.20833333334</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -2721,12 +1278,12 @@
         <v>1162</v>
       </c>
       <c r="F44">
-        <v>9.0830923161103735E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>45222.208333333343</v>
+        <v>0.09083092316110374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>45222.20833333334</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -2741,12 +1298,12 @@
         <v>1093</v>
       </c>
       <c r="F45">
-        <v>0.10523782014249949</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>45229.208333333343</v>
+        <v>0.1052378201424995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>45229.20833333334</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -2761,12 +1318,12 @@
         <v>2145</v>
       </c>
       <c r="F46">
-        <v>0.15604539502400699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>45236.208333333343</v>
+        <v>0.156045395024007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>45236.20833333334</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -2784,9 +1341,9 @@
         <v>0.1779084727072229</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>45243.208333333343</v>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>45243.20833333334</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -2804,9 +1361,9 @@
         <v>0.1102114561027837</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>45250.208333333343</v>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>45250.20833333334</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -2824,9 +1381,9 @@
         <v>0.1362862010221465</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>45257.208333333343</v>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>45257.20833333334</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -2841,12 +1398,12 @@
         <v>856</v>
       </c>
       <c r="F50">
-        <v>0.13236431111798361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>45264.208333333343</v>
+        <v>0.1323643111179836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>45264.20833333334</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -2864,9 +1421,9 @@
         <v>0.1074715069649641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>45271.208333333343</v>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>45271.20833333334</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -2881,12 +1438,12 @@
         <v>1463</v>
       </c>
       <c r="F52">
-        <v>0.12878521126760559</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>45278.208333333343</v>
+        <v>0.1287852112676056</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>45278.20833333334</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -2904,9 +1461,9 @@
         <v>0.1067981210963712</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>45285.208333333343</v>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>45285.20833333334</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -2921,12 +1478,12 @@
         <v>3375</v>
       </c>
       <c r="F54">
-        <v>0.16524676850763809</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>45292.208333333343</v>
+        <v>0.1652467685076381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>45292.20833333334</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2944,9 +1501,9 @@
         <v>0.1229258381307145</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>45299.208333333343</v>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>45299.20833333334</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2961,12 +1518,12 @@
         <v>2655</v>
       </c>
       <c r="F56">
-        <v>0.13717385688452599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>45306.208333333343</v>
+        <v>0.137173856884526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>45306.20833333334</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2984,9 +1541,9 @@
         <v>0.1172599966256116</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>45313.208333333343</v>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>45313.20833333334</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3001,12 +1558,12 @@
         <v>2957</v>
       </c>
       <c r="F58">
-        <v>0.18282428589093611</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>45320.208333333343</v>
+        <v>0.1828242858909361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>45320.20833333334</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3024,9 +1581,9 @@
         <v>0.1302646861055077</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>45327.208333333343</v>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>45327.20833333334</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3041,12 +1598,12 @@
         <v>1788</v>
       </c>
       <c r="F60">
-        <v>0.13908984830805141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>45334.208333333343</v>
+        <v>0.1390898483080514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>45334.20833333334</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3064,9 +1621,9 @@
         <v>0.1235942607057781</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>45341.208333333343</v>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>45341.20833333334</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -3081,12 +1638,12 @@
         <v>2490</v>
       </c>
       <c r="F62">
-        <v>0.13257374081567461</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>45348.208333333343</v>
+        <v>0.1325737408156746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>45348.20833333334</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -3101,12 +1658,12 @@
         <v>2577</v>
       </c>
       <c r="F63">
-        <v>0.16784993160945741</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>45355.208333333343</v>
+        <v>0.1678499316094574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>45355.20833333334</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3124,9 +1681,9 @@
         <v>0.1301654453426003</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>45362.208333333343</v>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>45362.20833333334</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -3144,9 +1701,9 @@
         <v>0.1352588646578991</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>45369.208333333343</v>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>45369.20833333334</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3161,12 +1718,12 @@
         <v>1684</v>
       </c>
       <c r="F66">
-        <v>0.12468532504072261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>45376.208333333343</v>
+        <v>0.1246853250407226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>45376.20833333334</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -3184,26 +1741,280 @@
         <v>0.1212860690127579</v>
       </c>
     </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>45383.20833333334</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+      <c r="D68">
+        <v>28970</v>
+      </c>
+      <c r="E68">
+        <v>2843</v>
+      </c>
+      <c r="F68">
+        <v>0.09813600276147739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>45390.20833333334</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+      <c r="D69">
+        <v>16806</v>
+      </c>
+      <c r="E69">
+        <v>2363</v>
+      </c>
+      <c r="F69">
+        <v>0.1406045459954778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>45397.20833333334</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+      <c r="D70">
+        <v>15947</v>
+      </c>
+      <c r="E70">
+        <v>2627</v>
+      </c>
+      <c r="F70">
+        <v>0.1647331786542924</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>45404.20833333334</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+      <c r="D71">
+        <v>18227</v>
+      </c>
+      <c r="E71">
+        <v>2776</v>
+      </c>
+      <c r="F71">
+        <v>0.1523015306962199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>45411.20833333334</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+      <c r="D72">
+        <v>17122</v>
+      </c>
+      <c r="E72">
+        <v>2757</v>
+      </c>
+      <c r="F72">
+        <v>0.1610209087723397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>45418.20833333334</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+      <c r="D73">
+        <v>12126</v>
+      </c>
+      <c r="E73">
+        <v>1531</v>
+      </c>
+      <c r="F73">
+        <v>0.1262576282368464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>45425.20833333334</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>2024</v>
+      </c>
+      <c r="D74">
+        <v>12923</v>
+      </c>
+      <c r="E74">
+        <v>1861</v>
+      </c>
+      <c r="F74">
+        <v>0.1440068095643426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>45432.20833333334</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>2024</v>
+      </c>
+      <c r="D75">
+        <v>13539</v>
+      </c>
+      <c r="E75">
+        <v>1779</v>
+      </c>
+      <c r="F75">
+        <v>0.1313981830268114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>45439.20833333334</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2024</v>
+      </c>
+      <c r="D76">
+        <v>15180</v>
+      </c>
+      <c r="E76">
+        <v>3088</v>
+      </c>
+      <c r="F76">
+        <v>0.2034255599472991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>45446.20833333334</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>2024</v>
+      </c>
+      <c r="D77">
+        <v>14237</v>
+      </c>
+      <c r="E77">
+        <v>2365</v>
+      </c>
+      <c r="F77">
+        <v>0.166116457118775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>45453.20833333334</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>2024</v>
+      </c>
+      <c r="D78">
+        <v>13101</v>
+      </c>
+      <c r="E78">
+        <v>2006</v>
+      </c>
+      <c r="F78">
+        <v>0.1531180825891153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>45460.20833333334</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>2024</v>
+      </c>
+      <c r="D79">
+        <v>13175</v>
+      </c>
+      <c r="E79">
+        <v>1697</v>
+      </c>
+      <c r="F79">
+        <v>0.1288045540796964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>45467.20833333334</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2024</v>
+      </c>
+      <c r="D80">
+        <v>16726</v>
+      </c>
+      <c r="E80">
+        <v>2962</v>
+      </c>
+      <c r="F80">
+        <v>0.1770895611622623</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3223,9 +2034,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>44921.208333333343</v>
+        <v>44921.20833333334</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -3240,12 +2051,12 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>0.19230769230769229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>44928.208333333343</v>
+        <v>44928.20833333334</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3260,12 +2071,12 @@
         <v>262</v>
       </c>
       <c r="F3">
-        <v>0.22184589331075361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2218458933107536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>44935.208333333343</v>
+        <v>44935.20833333334</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3283,9 +2094,9 @@
         <v>0.1494708994708995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>44942.208333333343</v>
+        <v>44942.20833333334</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3300,12 +2111,12 @@
         <v>424</v>
       </c>
       <c r="F5">
-        <v>0.22315789473684211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2231578947368421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>44949.208333333343</v>
+        <v>44949.20833333334</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3320,12 +2131,12 @@
         <v>216</v>
       </c>
       <c r="F6">
-        <v>7.4303405572755415E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.07430340557275542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>44956.208333333343</v>
+        <v>44956.20833333334</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3340,12 +2151,12 @@
         <v>356</v>
       </c>
       <c r="F7">
-        <v>0.19810795770728989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1981079577072899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>44963.208333333343</v>
+        <v>44963.20833333334</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3360,12 +2171,12 @@
         <v>599</v>
       </c>
       <c r="F8">
-        <v>0.21256210078069551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2125621007806955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>44970.208333333343</v>
+        <v>44970.20833333334</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3380,12 +2191,12 @@
         <v>1521</v>
       </c>
       <c r="F9">
-        <v>0.44163763066202089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4416376306620209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>44977.208333333343</v>
+        <v>44977.20833333334</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3403,9 +2214,9 @@
         <v>0.1537410317731466</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>44984.208333333343</v>
+        <v>44984.20833333334</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3420,12 +2231,12 @@
         <v>286</v>
       </c>
       <c r="F11">
-        <v>0.19389830508474579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1938983050847458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>44991.208333333343</v>
+        <v>44991.20833333334</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -3440,12 +2251,12 @@
         <v>441</v>
       </c>
       <c r="F12">
-        <v>0.13227354529094179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1322735452909418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>44998.208333333343</v>
+        <v>44998.20833333334</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3460,12 +2271,12 @@
         <v>701</v>
       </c>
       <c r="F13">
-        <v>0.22232794164287981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2223279416428798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45005.208333333343</v>
+        <v>45005.20833333334</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3480,12 +2291,12 @@
         <v>706</v>
       </c>
       <c r="F14">
-        <v>0.23501997336884151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2350199733688415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45012.208333333343</v>
+        <v>45012.20833333334</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -3500,12 +2311,12 @@
         <v>1533</v>
       </c>
       <c r="F15">
-        <v>0.35192837465564741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3519283746556474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45019.208333333343</v>
+        <v>45019.20833333334</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -3523,9 +2334,9 @@
         <v>0.2831839966659721</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45026.208333333343</v>
+        <v>45026.20833333334</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -3543,9 +2354,9 @@
         <v>0.1537180910099889</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45033.208333333343</v>
+        <v>45033.20833333334</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3560,12 +2371,12 @@
         <v>852</v>
       </c>
       <c r="F18">
-        <v>0.23127035830618889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2312703583061889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45040.208333333343</v>
+        <v>45040.20833333334</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3580,12 +2391,12 @@
         <v>715</v>
       </c>
       <c r="F19">
-        <v>0.16042180839129461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1604218083912946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45047.208333333343</v>
+        <v>45047.20833333334</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -3600,12 +2411,12 @@
         <v>541</v>
       </c>
       <c r="F20">
-        <v>0.16738861386138609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1673886138613861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45054.208333333343</v>
+        <v>45054.20833333334</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -3623,9 +2434,9 @@
         <v>0.1348122866894198</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45061.208333333343</v>
+        <v>45061.20833333334</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -3640,12 +2451,12 @@
         <v>287</v>
       </c>
       <c r="F22">
-        <v>0.10489766081871341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1048976608187134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45068.208333333343</v>
+        <v>45068.20833333334</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -3660,12 +2471,12 @@
         <v>211</v>
       </c>
       <c r="F23">
-        <v>0.14581893572909471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1458189357290947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45075.208333333343</v>
+        <v>45075.20833333334</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3683,9 +2494,9 @@
         <v>0.1582172701949861</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45082.208333333343</v>
+        <v>45082.20833333334</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -3700,12 +2511,12 @@
         <v>277</v>
       </c>
       <c r="F25">
-        <v>0.14932614555256071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1493261455525607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45089.208333333343</v>
+        <v>45089.20833333334</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -3720,12 +2531,12 @@
         <v>163</v>
       </c>
       <c r="F26">
-        <v>6.2190003815337659E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.06219000381533766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45096.208333333343</v>
+        <v>45096.20833333334</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -3740,12 +2551,12 @@
         <v>293</v>
       </c>
       <c r="F27">
-        <v>0.15880758807588069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1588075880758807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45103.208333333343</v>
+        <v>45103.20833333334</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -3760,12 +2571,12 @@
         <v>289</v>
       </c>
       <c r="F28">
-        <v>0.16495433789954339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1649543378995434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45110.208333333343</v>
+        <v>45110.20833333334</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -3780,12 +2591,12 @@
         <v>180</v>
       </c>
       <c r="F29">
-        <v>0.12631578947368419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1263157894736842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45117.208333333343</v>
+        <v>45117.20833333334</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -3800,12 +2611,12 @@
         <v>184</v>
       </c>
       <c r="F30">
-        <v>9.4214029697900672E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.09421402969790067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45124.208333333343</v>
+        <v>45124.20833333334</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -3820,12 +2631,12 @@
         <v>742</v>
       </c>
       <c r="F31">
-        <v>0.27665920954511558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2766592095451156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45131.208333333343</v>
+        <v>45131.20833333334</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -3840,12 +2651,12 @@
         <v>876</v>
       </c>
       <c r="F32">
-        <v>0.16820276497695849</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1682027649769585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45138.208333333343</v>
+        <v>45138.20833333334</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -3863,9 +2674,9 @@
         <v>0.2047101449275362</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45145.208333333343</v>
+        <v>45145.20833333334</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -3880,12 +2691,12 @@
         <v>537</v>
       </c>
       <c r="F34">
-        <v>0.20317820658342789</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2031782065834279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45152.208333333343</v>
+        <v>45152.20833333334</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -3903,9 +2714,9 @@
         <v>0.2283687943262411</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45159.208333333343</v>
+        <v>45159.20833333334</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -3923,9 +2734,9 @@
         <v>0.1065192083818393</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45166.208333333343</v>
+        <v>45166.20833333334</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -3940,12 +2751,12 @@
         <v>549</v>
       </c>
       <c r="F37">
-        <v>0.29016913319238902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.290169133192389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45173.208333333343</v>
+        <v>45173.20833333334</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -3960,12 +2771,12 @@
         <v>1396</v>
       </c>
       <c r="F38">
-        <v>0.11267150928167879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1126715092816788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45180.208333333343</v>
+        <v>45180.20833333334</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -3980,12 +2791,12 @@
         <v>880</v>
       </c>
       <c r="F39">
-        <v>0.24430871737923379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2443087173792338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45187.208333333343</v>
+        <v>45187.20833333334</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -4000,12 +2811,12 @@
         <v>516</v>
       </c>
       <c r="F40">
-        <v>0.22791519434628979</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2279151943462898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45194.208333333343</v>
+        <v>45194.20833333334</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -4020,12 +2831,12 @@
         <v>440</v>
       </c>
       <c r="F41">
-        <v>0.12694748990190419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1269474899019042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45201.208333333343</v>
+        <v>45201.20833333334</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -4040,12 +2851,12 @@
         <v>575</v>
       </c>
       <c r="F42">
-        <v>0.18341307814992031</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1834130781499203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45208.208333333343</v>
+        <v>45208.20833333334</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -4060,12 +2871,12 @@
         <v>288</v>
       </c>
       <c r="F43">
-        <v>0.14552804446690251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1455280444669025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45215.208333333343</v>
+        <v>45215.20833333334</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -4083,9 +2894,9 @@
         <v>0.1211913728175282</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45222.208333333343</v>
+        <v>45222.20833333334</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -4100,12 +2911,12 @@
         <v>785</v>
       </c>
       <c r="F45">
-        <v>0.22766821345707661</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2276682134570766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45229.208333333343</v>
+        <v>45229.20833333334</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -4120,12 +2931,12 @@
         <v>2186</v>
       </c>
       <c r="F46">
-        <v>0.28385923905986238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2838592390598624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45236.208333333343</v>
+        <v>45236.20833333334</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -4143,9 +2954,9 @@
         <v>0.2121613942034476</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45243.208333333343</v>
+        <v>45243.20833333334</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -4160,12 +2971,12 @@
         <v>1406</v>
       </c>
       <c r="F48">
-        <v>0.20025637373593511</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2002563737359351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45250.208333333343</v>
+        <v>45250.20833333334</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -4180,12 +2991,12 @@
         <v>1082</v>
       </c>
       <c r="F49">
-        <v>0.26198547215496371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2619854721549637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45257.208333333343</v>
+        <v>45257.20833333334</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -4200,12 +3011,12 @@
         <v>217</v>
       </c>
       <c r="F50">
-        <v>0.17304625199362039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1730462519936204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45264.208333333343</v>
+        <v>45264.20833333334</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -4220,12 +3031,12 @@
         <v>1332</v>
       </c>
       <c r="F51">
-        <v>0.26887363746467502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.268873637464675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45271.208333333343</v>
+        <v>45271.20833333334</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -4243,9 +3054,9 @@
         <v>0.2114537444933921</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45278.208333333343</v>
+        <v>45278.20833333334</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -4260,12 +3071,12 @@
         <v>824</v>
       </c>
       <c r="F53">
-        <v>0.33468724614134848</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3346872461413485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45285.208333333343</v>
+        <v>45285.20833333334</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -4280,12 +3091,12 @@
         <v>2018</v>
       </c>
       <c r="F54">
-        <v>0.38867488443759629</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3886748844375963</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45292.208333333343</v>
+        <v>45292.20833333334</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4300,12 +3111,12 @@
         <v>747</v>
       </c>
       <c r="F55">
-        <v>0.26822262118491919</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2682226211849192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45299.208333333343</v>
+        <v>45299.20833333334</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4320,12 +3131,12 @@
         <v>1469</v>
       </c>
       <c r="F56">
-        <v>0.27103321033210331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2710332103321033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45306.208333333343</v>
+        <v>45306.20833333334</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4340,12 +3151,12 @@
         <v>770</v>
       </c>
       <c r="F57">
-        <v>0.20511454448588171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2051145444858817</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45313.208333333343</v>
+        <v>45313.20833333334</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4363,9 +3174,9 @@
         <v>0.1375757575757576</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45320.208333333343</v>
+        <v>45320.20833333334</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4383,9 +3194,9 @@
         <v>0.1819551389353867</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45327.208333333343</v>
+        <v>45327.20833333334</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4400,12 +3211,12 @@
         <v>794</v>
       </c>
       <c r="F60">
-        <v>0.15713437561844451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1571343756184445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45334.208333333343</v>
+        <v>45334.20833333334</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4420,12 +3231,12 @@
         <v>526</v>
       </c>
       <c r="F61">
-        <v>0.13701484761656679</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1370148476165668</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45341.208333333343</v>
+        <v>45341.20833333334</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4440,12 +3251,12 @@
         <v>764</v>
       </c>
       <c r="F62">
-        <v>0.21023665382498621</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2102366538249862</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45348.208333333343</v>
+        <v>45348.20833333334</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -4463,9 +3274,9 @@
         <v>0.1387618176273254</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45355.208333333343</v>
+        <v>45355.20833333334</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4480,12 +3291,12 @@
         <v>212</v>
       </c>
       <c r="F64">
-        <v>0.15497076023391809</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1549707602339181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45362.208333333343</v>
+        <v>45362.20833333334</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4500,12 +3311,12 @@
         <v>585</v>
       </c>
       <c r="F65">
-        <v>0.33276450511945388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3327645051194539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45369.208333333343</v>
+        <v>45369.20833333334</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4520,12 +3331,12 @@
         <v>261</v>
       </c>
       <c r="F66">
-        <v>0.11788617886178859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1178861788617886</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45376.208333333343</v>
+        <v>45376.20833333334</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4540,28 +3351,283 @@
         <v>337</v>
       </c>
       <c r="F67">
-        <v>0.14183501683501679</v>
+        <v>0.1418350168350168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>45383.20833333334</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+      <c r="D68">
+        <v>3027</v>
+      </c>
+      <c r="E68">
+        <v>968</v>
+      </c>
+      <c r="F68">
+        <v>0.3197885695407995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>45390.20833333334</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+      <c r="D69">
+        <v>2987</v>
+      </c>
+      <c r="E69">
+        <v>658</v>
+      </c>
+      <c r="F69">
+        <v>0.2202879142952796</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>45397.20833333334</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+      <c r="D70">
+        <v>4209</v>
+      </c>
+      <c r="E70">
+        <v>1210</v>
+      </c>
+      <c r="F70">
+        <v>0.2874792112140651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>45404.20833333334</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+      <c r="D71">
+        <v>2358</v>
+      </c>
+      <c r="E71">
+        <v>249</v>
+      </c>
+      <c r="F71">
+        <v>0.1055979643765903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>45411.20833333334</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+      <c r="D72">
+        <v>1454</v>
+      </c>
+      <c r="E72">
+        <v>327</v>
+      </c>
+      <c r="F72">
+        <v>0.2248968363136176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>45418.20833333334</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+      <c r="D73">
+        <v>1331</v>
+      </c>
+      <c r="E73">
+        <v>278</v>
+      </c>
+      <c r="F73">
+        <v>0.2088655146506386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>45425.20833333334</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>2024</v>
+      </c>
+      <c r="D74">
+        <v>992</v>
+      </c>
+      <c r="E74">
+        <v>248</v>
+      </c>
+      <c r="F74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>45432.20833333334</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>2024</v>
+      </c>
+      <c r="D75">
+        <v>1419</v>
+      </c>
+      <c r="E75">
+        <v>505</v>
+      </c>
+      <c r="F75">
+        <v>0.3558844256518675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>45439.20833333334</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2024</v>
+      </c>
+      <c r="D76">
+        <v>1273</v>
+      </c>
+      <c r="E76">
+        <v>262</v>
+      </c>
+      <c r="F76">
+        <v>0.2058130400628437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>45446.20833333334</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>2024</v>
+      </c>
+      <c r="D77">
+        <v>1867</v>
+      </c>
+      <c r="E77">
+        <v>634</v>
+      </c>
+      <c r="F77">
+        <v>0.3395822174611676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>45453.20833333334</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>2024</v>
+      </c>
+      <c r="D78">
+        <v>2124</v>
+      </c>
+      <c r="E78">
+        <v>842</v>
+      </c>
+      <c r="F78">
+        <v>0.3964218455743879</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>45460.20833333334</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>2024</v>
+      </c>
+      <c r="D79">
+        <v>4651</v>
+      </c>
+      <c r="E79">
+        <v>1165</v>
+      </c>
+      <c r="F79">
+        <v>0.2504837669318426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>45467.20833333334</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2024</v>
+      </c>
+      <c r="D80">
+        <v>4709</v>
+      </c>
+      <c r="E80">
+        <v>894</v>
+      </c>
+      <c r="F80">
+        <v>0.1898492248885114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4581,9 +3647,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>44921.208333333343</v>
+        <v>44921.20833333334</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -4598,12 +3664,12 @@
         <v>54</v>
       </c>
       <c r="F2">
-        <v>0.25352112676056338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2535211267605634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>44928.208333333343</v>
+        <v>44928.20833333334</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4618,12 +3684,12 @@
         <v>451</v>
       </c>
       <c r="F3">
-        <v>0.19737417943107219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1973741794310722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>44935.208333333343</v>
+        <v>44935.20833333334</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4641,9 +3707,9 @@
         <v>0.1171390013495277</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>44942.208333333343</v>
+        <v>44942.20833333334</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4658,12 +3724,12 @@
         <v>1702</v>
       </c>
       <c r="F5">
-        <v>0.36712683347713548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3671268334771355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>44949.208333333343</v>
+        <v>44949.20833333334</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4678,12 +3744,12 @@
         <v>861</v>
       </c>
       <c r="F6">
-        <v>0.11194903133532701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.111949031335327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>44956.208333333343</v>
+        <v>44956.20833333334</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4698,12 +3764,12 @@
         <v>465</v>
       </c>
       <c r="F7">
-        <v>0.10539437896645509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1053943789664551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>44963.208333333343</v>
+        <v>44963.20833333334</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4718,12 +3784,12 @@
         <v>403</v>
       </c>
       <c r="F8">
-        <v>0.14392857142857141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1439285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>44970.208333333343</v>
+        <v>44970.20833333334</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4738,12 +3804,12 @@
         <v>349</v>
       </c>
       <c r="F9">
-        <v>0.14517470881863559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1451747088186356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>44977.208333333343</v>
+        <v>44977.20833333334</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -4761,9 +3827,9 @@
         <v>0.1224096385542169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>44984.208333333343</v>
+        <v>44984.20833333334</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -4778,12 +3844,12 @@
         <v>388</v>
       </c>
       <c r="F11">
-        <v>0.14022406938923021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1402240693892302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>44991.208333333343</v>
+        <v>44991.20833333334</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -4798,12 +3864,12 @@
         <v>244</v>
       </c>
       <c r="F12">
-        <v>9.3954562957258375E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.09395456295725838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>44998.208333333343</v>
+        <v>44998.20833333334</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4818,12 +3884,12 @@
         <v>288</v>
       </c>
       <c r="F13">
-        <v>9.8226466575716237E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.09822646657571624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45005.208333333343</v>
+        <v>45005.20833333334</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -4838,12 +3904,12 @@
         <v>465</v>
       </c>
       <c r="F14">
-        <v>0.10289887143173269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1028988714317327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45012.208333333343</v>
+        <v>45012.20833333334</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4858,12 +3924,12 @@
         <v>598</v>
       </c>
       <c r="F15">
-        <v>0.14392298435619741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1439229843561974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45019.208333333343</v>
+        <v>45019.20833333334</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4878,12 +3944,12 @@
         <v>493</v>
       </c>
       <c r="F16">
-        <v>8.9734255551510739E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.08973425555151074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45026.208333333343</v>
+        <v>45026.20833333334</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -4901,9 +3967,9 @@
         <v>0.1526943252265141</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45033.208333333343</v>
+        <v>45033.20833333334</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -4921,9 +3987,9 @@
         <v>0.1780985915492958</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45040.208333333343</v>
+        <v>45040.20833333334</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4938,12 +4004,12 @@
         <v>1347</v>
       </c>
       <c r="F19">
-        <v>8.8385826771653547E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.08838582677165355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45047.208333333343</v>
+        <v>45047.20833333334</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -4958,12 +4024,12 @@
         <v>682</v>
       </c>
       <c r="F20">
-        <v>8.5678391959798997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.085678391959799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45054.208333333343</v>
+        <v>45054.20833333334</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -4978,12 +4044,12 @@
         <v>426</v>
       </c>
       <c r="F21">
-        <v>9.5558546433378203E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0955585464333782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45061.208333333343</v>
+        <v>45061.20833333334</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -4998,12 +4064,12 @@
         <v>585</v>
       </c>
       <c r="F22">
-        <v>0.17950291500460261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1795029150046026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45068.208333333343</v>
+        <v>45068.20833333334</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -5018,12 +4084,12 @@
         <v>310</v>
       </c>
       <c r="F23">
-        <v>0.12836438923395449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1283643892339545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45075.208333333343</v>
+        <v>45075.20833333334</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -5041,9 +4107,9 @@
         <v>0.1064991807755325</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45082.208333333343</v>
+        <v>45082.20833333334</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -5061,9 +4127,9 @@
         <v>0.1053614297145906</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45089.208333333343</v>
+        <v>45089.20833333334</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -5078,12 +4144,12 @@
         <v>347</v>
       </c>
       <c r="F26">
-        <v>0.10336610068513551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1033661006851355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45096.208333333343</v>
+        <v>45096.20833333334</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -5098,12 +4164,12 @@
         <v>358</v>
       </c>
       <c r="F27">
-        <v>7.4212271973465999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.074212271973466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45103.208333333343</v>
+        <v>45103.20833333334</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -5118,12 +4184,12 @@
         <v>333</v>
       </c>
       <c r="F28">
-        <v>7.859334434741562E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.07859334434741562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45110.208333333343</v>
+        <v>45110.20833333334</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -5138,12 +4204,12 @@
         <v>344</v>
       </c>
       <c r="F29">
-        <v>7.7634845407357253E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.07763484540735725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45117.208333333343</v>
+        <v>45117.20833333334</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -5158,12 +4224,12 @@
         <v>352</v>
       </c>
       <c r="F30">
-        <v>0.12790697674418611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1279069767441861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45124.208333333343</v>
+        <v>45124.20833333334</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -5178,12 +4244,12 @@
         <v>315</v>
       </c>
       <c r="F31">
-        <v>0.14024933214603741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1402493321460374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45131.208333333343</v>
+        <v>45131.20833333334</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -5198,12 +4264,12 @@
         <v>428</v>
       </c>
       <c r="F32">
-        <v>0.16126601356443099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.161266013564431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45138.208333333343</v>
+        <v>45138.20833333334</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -5221,9 +4287,9 @@
         <v>0.1250384024577573</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45145.208333333343</v>
+        <v>45145.20833333334</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -5241,9 +4307,9 @@
         <v>0.1040587219343696</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45152.208333333343</v>
+        <v>45152.20833333334</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -5261,9 +4327,9 @@
         <v>0.1708762082943561</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45159.208333333343</v>
+        <v>45159.20833333334</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -5281,9 +4347,9 @@
         <v>0.1166134185303514</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45166.208333333343</v>
+        <v>45166.20833333334</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -5301,9 +4367,9 @@
         <v>0.1014989293361884</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45173.208333333343</v>
+        <v>45173.20833333334</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -5318,12 +4384,12 @@
         <v>253</v>
       </c>
       <c r="F38">
-        <v>9.9724083563263691E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.09972408356326369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45180.208333333343</v>
+        <v>45180.20833333334</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -5341,9 +4407,9 @@
         <v>0.1029844472467423</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45187.208333333343</v>
+        <v>45187.20833333334</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -5361,9 +4427,9 @@
         <v>0.127587184576127</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45194.208333333343</v>
+        <v>45194.20833333334</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -5378,12 +4444,12 @@
         <v>411</v>
       </c>
       <c r="F41">
-        <v>0.13031071655041221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1303107165504122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45201.208333333343</v>
+        <v>45201.20833333334</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -5401,9 +4467,9 @@
         <v>0.1185635067335622</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45208.208333333343</v>
+        <v>45208.20833333334</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -5421,9 +4487,9 @@
         <v>0.1096381225367252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45215.208333333343</v>
+        <v>45215.20833333334</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -5438,12 +4504,12 @@
         <v>366</v>
       </c>
       <c r="F44">
-        <v>9.2564491654021239E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.09256449165402124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45222.208333333343</v>
+        <v>45222.20833333334</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -5458,12 +4524,12 @@
         <v>207</v>
       </c>
       <c r="F45">
-        <v>7.2631578947368422E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.07263157894736842</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45229.208333333343</v>
+        <v>45229.20833333334</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -5478,12 +4544,12 @@
         <v>2491</v>
       </c>
       <c r="F46">
-        <v>0.15713114237052919</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1571311423705292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45236.208333333343</v>
+        <v>45236.20833333334</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -5501,9 +4567,9 @@
         <v>0.1165675446049278</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45243.208333333343</v>
+        <v>45243.20833333334</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -5521,9 +4587,9 @@
         <v>0.116504854368932</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45250.208333333343</v>
+        <v>45250.20833333334</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -5541,9 +4607,9 @@
         <v>0.2286402584248132</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45257.208333333343</v>
+        <v>45257.20833333334</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -5561,9 +4627,9 @@
         <v>0.1129381220250974</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45264.208333333343</v>
+        <v>45264.20833333334</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -5578,12 +4644,12 @@
         <v>745</v>
       </c>
       <c r="F51">
-        <v>0.19350649350649349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1935064935064935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45271.208333333343</v>
+        <v>45271.20833333334</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -5601,9 +4667,9 @@
         <v>0.1088215258855586</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45278.208333333343</v>
+        <v>45278.20833333334</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -5618,12 +4684,12 @@
         <v>596</v>
       </c>
       <c r="F53">
-        <v>0.17627920733510799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.176279207335108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45285.208333333343</v>
+        <v>45285.20833333334</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -5638,12 +4704,12 @@
         <v>1847</v>
       </c>
       <c r="F54">
-        <v>0.30293587010004919</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3029358701000492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45292.208333333343</v>
+        <v>45292.20833333334</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -5658,12 +4724,12 @@
         <v>464</v>
       </c>
       <c r="F55">
-        <v>0.16448068060971291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1644806806097129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45299.208333333343</v>
+        <v>45299.20833333334</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -5678,12 +4744,12 @@
         <v>799</v>
       </c>
       <c r="F56">
-        <v>0.14329268292682931</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1432926829268293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45306.208333333343</v>
+        <v>45306.20833333334</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -5698,12 +4764,12 @@
         <v>623</v>
       </c>
       <c r="F57">
-        <v>0.15044675199227239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1504467519922724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45313.208333333343</v>
+        <v>45313.20833333334</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5721,9 +4787,9 @@
         <v>0.1178131416837782</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45320.208333333343</v>
+        <v>45320.20833333334</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5741,9 +4807,9 @@
         <v>0.1330547613811304</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45327.208333333343</v>
+        <v>45327.20833333334</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -5758,12 +4824,12 @@
         <v>388</v>
       </c>
       <c r="F60">
-        <v>9.1380122468205371E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.09138012246820537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45334.208333333343</v>
+        <v>45334.20833333334</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5781,9 +4847,9 @@
         <v>0.1066945606694561</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45341.208333333343</v>
+        <v>45341.20833333334</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5801,9 +4867,9 @@
         <v>0.1184556296745502</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45348.208333333343</v>
+        <v>45348.20833333334</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -5818,12 +4884,12 @@
         <v>567</v>
       </c>
       <c r="F63">
-        <v>0.12248865845755021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1224886584575502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45355.208333333343</v>
+        <v>45355.20833333334</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -5838,12 +4904,12 @@
         <v>556</v>
       </c>
       <c r="F64">
-        <v>0.14806924101198399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.148069241011984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45362.208333333343</v>
+        <v>45362.20833333334</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -5861,9 +4927,9 @@
         <v>0.1394230769230769</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45369.208333333343</v>
+        <v>45369.20833333334</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -5881,9 +4947,9 @@
         <v>0.1507706053160599</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45376.208333333343</v>
+        <v>45376.20833333334</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -5901,7 +4967,267 @@
         <v>0.1007804546996946</v>
       </c>
     </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>45383.20833333334</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>2024</v>
+      </c>
+      <c r="D68">
+        <v>5199</v>
+      </c>
+      <c r="E68">
+        <v>821</v>
+      </c>
+      <c r="F68">
+        <v>0.1579149836507021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>45390.20833333334</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>2024</v>
+      </c>
+      <c r="D69">
+        <v>7043</v>
+      </c>
+      <c r="E69">
+        <v>898</v>
+      </c>
+      <c r="F69">
+        <v>0.1275024847366179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>45397.20833333334</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>2024</v>
+      </c>
+      <c r="D70">
+        <v>4620</v>
+      </c>
+      <c r="E70">
+        <v>543</v>
+      </c>
+      <c r="F70">
+        <v>0.1175324675324675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>45404.20833333334</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>2024</v>
+      </c>
+      <c r="D71">
+        <v>4428</v>
+      </c>
+      <c r="E71">
+        <v>457</v>
+      </c>
+      <c r="F71">
+        <v>0.1032068654019874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>45411.20833333334</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>2024</v>
+      </c>
+      <c r="D72">
+        <v>4953</v>
+      </c>
+      <c r="E72">
+        <v>603</v>
+      </c>
+      <c r="F72">
+        <v>0.1217443973349485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>45418.20833333334</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2024</v>
+      </c>
+      <c r="D73">
+        <v>4042</v>
+      </c>
+      <c r="E73">
+        <v>753</v>
+      </c>
+      <c r="F73">
+        <v>0.1862939139040079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>45425.20833333334</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>2024</v>
+      </c>
+      <c r="D74">
+        <v>4797</v>
+      </c>
+      <c r="E74">
+        <v>469</v>
+      </c>
+      <c r="F74">
+        <v>0.09776943923285386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>45432.20833333334</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>2024</v>
+      </c>
+      <c r="D75">
+        <v>4002</v>
+      </c>
+      <c r="E75">
+        <v>428</v>
+      </c>
+      <c r="F75">
+        <v>0.1069465267366317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>45439.20833333334</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2024</v>
+      </c>
+      <c r="D76">
+        <v>3902</v>
+      </c>
+      <c r="E76">
+        <v>504</v>
+      </c>
+      <c r="F76">
+        <v>0.1291645310097386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>45446.20833333334</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>2024</v>
+      </c>
+      <c r="D77">
+        <v>4996</v>
+      </c>
+      <c r="E77">
+        <v>654</v>
+      </c>
+      <c r="F77">
+        <v>0.1309047237790232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>45453.20833333334</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>2024</v>
+      </c>
+      <c r="D78">
+        <v>5573</v>
+      </c>
+      <c r="E78">
+        <v>671</v>
+      </c>
+      <c r="F78">
+        <v>0.1204019379149471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>45460.20833333334</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>2024</v>
+      </c>
+      <c r="D79">
+        <v>5264</v>
+      </c>
+      <c r="E79">
+        <v>1010</v>
+      </c>
+      <c r="F79">
+        <v>0.1918693009118541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>45467.20833333334</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2024</v>
+      </c>
+      <c r="D80">
+        <v>8778</v>
+      </c>
+      <c r="E80">
+        <v>909</v>
+      </c>
+      <c r="F80">
+        <v>0.1035543403964457</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Historico.xlsx
+++ b/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Historico.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10804"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos Barometro Xenofobia/BX-Hub/Tasa de Xenofobia/Tasa Xenofobia/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC060FA-5B31-2B42-922A-3E2CFC53A8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
     <sheet name="Ecuador" sheetId="2" r:id="rId2"/>
     <sheet name="Peru" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +126,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,14 +423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,9 +456,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44921.20833333334</v>
+        <v>44921.208333333343</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -441,9 +476,9 @@
         <v>0.2175480769230769</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44928.20833333334</v>
+        <v>44928.208333333343</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -461,9 +496,9 @@
         <v>0.1705336426914153</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44935.20833333334</v>
+        <v>44935.208333333343</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -478,12 +513,12 @@
         <v>1590</v>
       </c>
       <c r="F4">
-        <v>0.1329320290945573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.13293202909455731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44942.20833333334</v>
+        <v>44942.208333333343</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -498,12 +533,12 @@
         <v>1408</v>
       </c>
       <c r="F5">
-        <v>0.1444250692378705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.14442506923787049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44949.20833333334</v>
+        <v>44949.208333333343</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -518,12 +553,12 @@
         <v>1159</v>
       </c>
       <c r="F6">
-        <v>0.08583277790120714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>8.5832777901207136E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44956.20833333334</v>
+        <v>44956.208333333343</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -541,9 +576,9 @@
         <v>0.108167770419426</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44963.20833333334</v>
+        <v>44963.208333333343</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -558,12 +593,12 @@
         <v>1066</v>
       </c>
       <c r="F8">
-        <v>0.09854858093741332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>9.8548580937413324E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44970.20833333334</v>
+        <v>44970.208333333343</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -578,12 +613,12 @@
         <v>1314</v>
       </c>
       <c r="F9">
-        <v>0.1284708642940947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.12847086429409471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44977.20833333334</v>
+        <v>44977.208333333343</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -598,12 +633,12 @@
         <v>1011</v>
       </c>
       <c r="F10">
-        <v>0.09129492504966588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>9.1294925049665882E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44984.20833333334</v>
+        <v>44984.208333333343</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -618,12 +653,12 @@
         <v>1150</v>
       </c>
       <c r="F11">
-        <v>0.09714478797094103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>9.7144787970941032E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44991.20833333334</v>
+        <v>44991.208333333343</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -638,12 +673,12 @@
         <v>1537</v>
       </c>
       <c r="F12">
-        <v>0.1476181329235497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.14761813292354969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44998.20833333334</v>
+        <v>44998.208333333343</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -658,12 +693,12 @@
         <v>1818</v>
       </c>
       <c r="F13">
-        <v>0.1415998130695537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.14159981306955369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45005.20833333334</v>
+        <v>45005.208333333343</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -681,9 +716,9 @@
         <v>0.100852429978966</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>45012.20833333334</v>
+        <v>45012.208333333343</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -701,9 +736,9 @@
         <v>0.118208516886931</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>45019.20833333334</v>
+        <v>45019.208333333343</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -718,12 +753,12 @@
         <v>893</v>
       </c>
       <c r="F16">
-        <v>0.0858901606232567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>8.5890160623256703E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45026.20833333334</v>
+        <v>45026.208333333343</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -738,12 +773,12 @@
         <v>972</v>
       </c>
       <c r="F17">
-        <v>0.1039349871685201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.10393498716852009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45033.20833333334</v>
+        <v>45033.208333333343</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -758,12 +793,12 @@
         <v>785</v>
       </c>
       <c r="F18">
-        <v>0.08234553655722228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>8.2345536557222279E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45040.20833333334</v>
+        <v>45040.208333333343</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -778,12 +813,12 @@
         <v>1265</v>
       </c>
       <c r="F19">
-        <v>0.09128301342185019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>9.128301342185019E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>45047.20833333334</v>
+        <v>45047.208333333343</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -798,12 +833,12 @@
         <v>821</v>
       </c>
       <c r="F20">
-        <v>0.09352927773980406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>9.3529277739804059E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>45054.20833333334</v>
+        <v>45054.208333333343</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -818,12 +853,12 @@
         <v>767</v>
       </c>
       <c r="F21">
-        <v>0.08014629049111807</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>8.0146290491118072E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>45061.20833333334</v>
+        <v>45061.208333333343</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -838,12 +873,12 @@
         <v>698</v>
       </c>
       <c r="F22">
-        <v>0.08578100036868624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>8.5781000368686244E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>45068.20833333334</v>
+        <v>45068.208333333343</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -861,9 +896,9 @@
         <v>0.1024819855884708</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>45075.20833333334</v>
+        <v>45075.208333333343</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -878,12 +913,12 @@
         <v>985</v>
       </c>
       <c r="F24">
-        <v>0.0897657887542149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>8.9765788754214898E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>45082.20833333334</v>
+        <v>45082.208333333343</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -901,9 +936,9 @@
         <v>0.1070582662245381</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>45089.20833333334</v>
+        <v>45089.208333333343</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -918,12 +953,12 @@
         <v>720</v>
       </c>
       <c r="F26">
-        <v>0.08784773060029283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>8.7847730600292828E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45096.20833333334</v>
+        <v>45096.208333333343</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -938,12 +973,12 @@
         <v>947</v>
       </c>
       <c r="F27">
-        <v>0.08217632766400555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>8.2176327664005552E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45103.20833333334</v>
+        <v>45103.208333333343</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -958,12 +993,12 @@
         <v>2439</v>
       </c>
       <c r="F28">
-        <v>0.2024402390438247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.20244023904382469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45110.20833333334</v>
+        <v>45110.208333333343</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -978,12 +1013,12 @@
         <v>890</v>
       </c>
       <c r="F29">
-        <v>0.07264120143650016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>7.2641201436500158E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45117.20833333334</v>
+        <v>45117.208333333343</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -1001,9 +1036,9 @@
         <v>0.1058708119529128</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45124.20833333334</v>
+        <v>45124.208333333343</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1018,12 +1053,12 @@
         <v>869</v>
       </c>
       <c r="F31">
-        <v>0.07042710106167437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>7.0427101061674366E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45131.20833333334</v>
+        <v>45131.208333333343</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -1041,9 +1076,9 @@
         <v>0.1130854318663215</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45138.20833333334</v>
+        <v>45138.208333333343</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -1061,9 +1096,9 @@
         <v>0.1031094527363184</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45145.20833333334</v>
+        <v>45145.208333333343</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1081,9 +1116,9 @@
         <v>0.1121892055791389</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45152.20833333334</v>
+        <v>45152.208333333343</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -1098,12 +1133,12 @@
         <v>1746</v>
       </c>
       <c r="F35">
-        <v>0.2172452407614782</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.21724524076147819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45159.20833333334</v>
+        <v>45159.208333333343</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -1118,12 +1153,12 @@
         <v>884</v>
       </c>
       <c r="F36">
-        <v>0.1312936283974454</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.13129362839744541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45166.20833333334</v>
+        <v>45166.208333333343</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1138,12 +1173,12 @@
         <v>782</v>
       </c>
       <c r="F37">
-        <v>0.09481086323957323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>9.4810863239573231E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45173.20833333334</v>
+        <v>45173.208333333343</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1161,9 +1196,9 @@
         <v>0.1901282675759052</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45180.20833333334</v>
+        <v>45180.208333333343</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -1181,9 +1216,9 @@
         <v>0.1211887302199923</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45187.20833333334</v>
+        <v>45187.208333333343</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1198,12 +1233,12 @@
         <v>3325</v>
       </c>
       <c r="F40">
-        <v>0.2424706482899439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.24247064828994391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45194.20833333334</v>
+        <v>45194.208333333343</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -1218,12 +1253,12 @@
         <v>1928</v>
       </c>
       <c r="F41">
-        <v>0.1933413557962294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.19334135579622941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45201.20833333334</v>
+        <v>45201.208333333343</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1238,12 +1273,12 @@
         <v>1894</v>
       </c>
       <c r="F42">
-        <v>0.1524346076458752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.15243460764587519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45208.20833333334</v>
+        <v>45208.208333333343</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1258,12 +1293,12 @@
         <v>1097</v>
       </c>
       <c r="F43">
-        <v>0.1300533491404861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.13005334914048611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45215.20833333334</v>
+        <v>45215.208333333343</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -1278,12 +1313,12 @@
         <v>1162</v>
       </c>
       <c r="F44">
-        <v>0.09083092316110374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>9.0830923161103735E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45222.20833333334</v>
+        <v>45222.208333333343</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -1298,12 +1333,12 @@
         <v>1093</v>
       </c>
       <c r="F45">
-        <v>0.1052378201424995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.10523782014249949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45229.20833333334</v>
+        <v>45229.208333333343</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -1318,12 +1353,12 @@
         <v>2145</v>
       </c>
       <c r="F46">
-        <v>0.156045395024007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.15604539502400699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45236.20833333334</v>
+        <v>45236.208333333343</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -1341,9 +1376,9 @@
         <v>0.1779084727072229</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45243.20833333334</v>
+        <v>45243.208333333343</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1361,9 +1396,9 @@
         <v>0.1102114561027837</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45250.20833333334</v>
+        <v>45250.208333333343</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -1381,9 +1416,9 @@
         <v>0.1362862010221465</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45257.20833333334</v>
+        <v>45257.208333333343</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -1398,12 +1433,12 @@
         <v>856</v>
       </c>
       <c r="F50">
-        <v>0.1323643111179836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.13236431111798361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45264.20833333334</v>
+        <v>45264.208333333343</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1421,9 +1456,9 @@
         <v>0.1074715069649641</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45271.20833333334</v>
+        <v>45271.208333333343</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -1438,12 +1473,12 @@
         <v>1463</v>
       </c>
       <c r="F52">
-        <v>0.1287852112676056</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.12878521126760559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45278.20833333334</v>
+        <v>45278.208333333343</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -1461,9 +1496,9 @@
         <v>0.1067981210963712</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45285.20833333334</v>
+        <v>45285.208333333343</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -1478,12 +1513,12 @@
         <v>3375</v>
       </c>
       <c r="F54">
-        <v>0.1652467685076381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.16524676850763809</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45292.20833333334</v>
+        <v>45292.208333333343</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1501,9 +1536,9 @@
         <v>0.1229258381307145</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45299.20833333334</v>
+        <v>45299.208333333343</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1518,12 +1553,12 @@
         <v>2655</v>
       </c>
       <c r="F56">
-        <v>0.137173856884526</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.13717385688452599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45306.20833333334</v>
+        <v>45306.208333333343</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1541,9 +1576,9 @@
         <v>0.1172599966256116</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45313.20833333334</v>
+        <v>45313.208333333343</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1558,12 +1593,12 @@
         <v>2957</v>
       </c>
       <c r="F58">
-        <v>0.1828242858909361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.18282428589093611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45320.20833333334</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1581,9 +1616,9 @@
         <v>0.1302646861055077</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45327.20833333334</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1598,12 +1633,12 @@
         <v>1788</v>
       </c>
       <c r="F60">
-        <v>0.1390898483080514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.13908984830805141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45334.20833333334</v>
+        <v>45334.208333333343</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1621,9 +1656,9 @@
         <v>0.1235942607057781</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45341.20833333334</v>
+        <v>45341.208333333343</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1638,12 +1673,12 @@
         <v>2490</v>
       </c>
       <c r="F62">
-        <v>0.1325737408156746</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.13257374081567461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45348.20833333334</v>
+        <v>45348.208333333343</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -1658,12 +1693,12 @@
         <v>2577</v>
       </c>
       <c r="F63">
-        <v>0.1678499316094574</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.16784993160945741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45355.20833333334</v>
+        <v>45355.208333333343</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1681,9 +1716,9 @@
         <v>0.1301654453426003</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45362.20833333334</v>
+        <v>45362.208333333343</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -1701,9 +1736,9 @@
         <v>0.1352588646578991</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45369.20833333334</v>
+        <v>45369.208333333343</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -1718,12 +1753,12 @@
         <v>1684</v>
       </c>
       <c r="F66">
-        <v>0.1246853250407226</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.12468532504072261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45376.20833333334</v>
+        <v>45376.208333333343</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -1741,9 +1776,9 @@
         <v>0.1212860690127579</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45383.20833333334</v>
+        <v>45383.208333333343</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -1758,12 +1793,12 @@
         <v>2843</v>
       </c>
       <c r="F68">
-        <v>0.09813600276147739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>9.8136002761477395E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45390.20833333334</v>
+        <v>45390.208333333343</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -1778,12 +1813,12 @@
         <v>2363</v>
       </c>
       <c r="F69">
-        <v>0.1406045459954778</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.14060454599547781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45397.20833333334</v>
+        <v>45397.208333333343</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -1798,12 +1833,12 @@
         <v>2627</v>
       </c>
       <c r="F70">
-        <v>0.1647331786542924</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.16473317865429241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45404.20833333334</v>
+        <v>45404.208333333343</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -1818,12 +1853,12 @@
         <v>2776</v>
       </c>
       <c r="F71">
-        <v>0.1523015306962199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.15230153069621991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45411.20833333334</v>
+        <v>45411.208333333343</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -1838,12 +1873,12 @@
         <v>2757</v>
       </c>
       <c r="F72">
-        <v>0.1610209087723397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.16102090877233971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45418.20833333334</v>
+        <v>45418.208333333343</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -1858,12 +1893,12 @@
         <v>1531</v>
       </c>
       <c r="F73">
-        <v>0.1262576282368464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.12625762823684639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45425.20833333334</v>
+        <v>45425.208333333343</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -1878,12 +1913,12 @@
         <v>1861</v>
       </c>
       <c r="F74">
-        <v>0.1440068095643426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.14400680956434261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45432.20833333334</v>
+        <v>45432.208333333343</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -1898,12 +1933,12 @@
         <v>1779</v>
       </c>
       <c r="F75">
-        <v>0.1313981830268114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.13139818302681139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45439.20833333334</v>
+        <v>45439.208333333343</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -1918,12 +1953,12 @@
         <v>3088</v>
       </c>
       <c r="F76">
-        <v>0.2034255599472991</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.20342555994729911</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45446.20833333334</v>
+        <v>45446.208333333343</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -1938,12 +1973,12 @@
         <v>2365</v>
       </c>
       <c r="F77">
-        <v>0.166116457118775</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.16611645711877501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45453.20833333334</v>
+        <v>45453.208333333343</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -1961,9 +1996,9 @@
         <v>0.1531180825891153</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45460.20833333334</v>
+        <v>45460.208333333343</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -1981,9 +2016,9 @@
         <v>0.1288045540796964</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45467.20833333334</v>
+        <v>45467.208333333343</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -1998,7 +2033,7 @@
         <v>2962</v>
       </c>
       <c r="F80">
-        <v>0.1770895611622623</v>
+        <v>0.17708956116226229</v>
       </c>
     </row>
   </sheetData>
@@ -2007,14 +2042,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,9 +2074,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44921.20833333334</v>
+        <v>44921.208333333343</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -2051,12 +2091,12 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>0.1923076923076923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.19230769230769229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44928.20833333334</v>
+        <v>44928.208333333343</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2071,12 +2111,12 @@
         <v>262</v>
       </c>
       <c r="F3">
-        <v>0.2218458933107536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.22184589331075361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44935.20833333334</v>
+        <v>44935.208333333343</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2094,9 +2134,9 @@
         <v>0.1494708994708995</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44942.20833333334</v>
+        <v>44942.208333333343</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2111,12 +2151,12 @@
         <v>424</v>
       </c>
       <c r="F5">
-        <v>0.2231578947368421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.22315789473684211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44949.20833333334</v>
+        <v>44949.208333333343</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2131,12 +2171,12 @@
         <v>216</v>
       </c>
       <c r="F6">
-        <v>0.07430340557275542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>7.4303405572755415E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44956.20833333334</v>
+        <v>44956.208333333343</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2151,12 +2191,12 @@
         <v>356</v>
       </c>
       <c r="F7">
-        <v>0.1981079577072899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.19810795770728989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44963.20833333334</v>
+        <v>44963.208333333343</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2171,12 +2211,12 @@
         <v>599</v>
       </c>
       <c r="F8">
-        <v>0.2125621007806955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.21256210078069551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44970.20833333334</v>
+        <v>44970.208333333343</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2191,12 +2231,12 @@
         <v>1521</v>
       </c>
       <c r="F9">
-        <v>0.4416376306620209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.44163763066202089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44977.20833333334</v>
+        <v>44977.208333333343</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2214,9 +2254,9 @@
         <v>0.1537410317731466</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44984.20833333334</v>
+        <v>44984.208333333343</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2231,12 +2271,12 @@
         <v>286</v>
       </c>
       <c r="F11">
-        <v>0.1938983050847458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.19389830508474579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44991.20833333334</v>
+        <v>44991.208333333343</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2251,12 +2291,12 @@
         <v>441</v>
       </c>
       <c r="F12">
-        <v>0.1322735452909418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.13227354529094179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44998.20833333334</v>
+        <v>44998.208333333343</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2271,12 +2311,12 @@
         <v>701</v>
       </c>
       <c r="F13">
-        <v>0.2223279416428798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.22232794164287981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45005.20833333334</v>
+        <v>45005.208333333343</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2291,12 +2331,12 @@
         <v>706</v>
       </c>
       <c r="F14">
-        <v>0.2350199733688415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.23501997336884151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>45012.20833333334</v>
+        <v>45012.208333333343</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2311,12 +2351,12 @@
         <v>1533</v>
       </c>
       <c r="F15">
-        <v>0.3519283746556474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.35192837465564741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>45019.20833333334</v>
+        <v>45019.208333333343</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2334,9 +2374,9 @@
         <v>0.2831839966659721</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45026.20833333334</v>
+        <v>45026.208333333343</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2354,9 +2394,9 @@
         <v>0.1537180910099889</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45033.20833333334</v>
+        <v>45033.208333333343</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2371,12 +2411,12 @@
         <v>852</v>
       </c>
       <c r="F18">
-        <v>0.2312703583061889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.23127035830618889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45040.20833333334</v>
+        <v>45040.208333333343</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2391,12 +2431,12 @@
         <v>715</v>
       </c>
       <c r="F19">
-        <v>0.1604218083912946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.16042180839129461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>45047.20833333334</v>
+        <v>45047.208333333343</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2411,12 +2451,12 @@
         <v>541</v>
       </c>
       <c r="F20">
-        <v>0.1673886138613861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.16738861386138609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>45054.20833333334</v>
+        <v>45054.208333333343</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -2434,9 +2474,9 @@
         <v>0.1348122866894198</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>45061.20833333334</v>
+        <v>45061.208333333343</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2451,12 +2491,12 @@
         <v>287</v>
       </c>
       <c r="F22">
-        <v>0.1048976608187134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.10489766081871341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>45068.20833333334</v>
+        <v>45068.208333333343</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2471,12 +2511,12 @@
         <v>211</v>
       </c>
       <c r="F23">
-        <v>0.1458189357290947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.14581893572909471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>45075.20833333334</v>
+        <v>45075.208333333343</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2494,9 +2534,9 @@
         <v>0.1582172701949861</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>45082.20833333334</v>
+        <v>45082.208333333343</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2511,12 +2551,12 @@
         <v>277</v>
       </c>
       <c r="F25">
-        <v>0.1493261455525607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.14932614555256071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>45089.20833333334</v>
+        <v>45089.208333333343</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2531,12 +2571,12 @@
         <v>163</v>
       </c>
       <c r="F26">
-        <v>0.06219000381533766</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>6.2190003815337659E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45096.20833333334</v>
+        <v>45096.208333333343</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2551,12 +2591,12 @@
         <v>293</v>
       </c>
       <c r="F27">
-        <v>0.1588075880758807</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.15880758807588069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45103.20833333334</v>
+        <v>45103.208333333343</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2571,12 +2611,12 @@
         <v>289</v>
       </c>
       <c r="F28">
-        <v>0.1649543378995434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.16495433789954339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45110.20833333334</v>
+        <v>45110.208333333343</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2591,12 +2631,12 @@
         <v>180</v>
       </c>
       <c r="F29">
-        <v>0.1263157894736842</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.12631578947368419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45117.20833333334</v>
+        <v>45117.208333333343</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -2611,12 +2651,12 @@
         <v>184</v>
       </c>
       <c r="F30">
-        <v>0.09421402969790067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>9.4214029697900672E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45124.20833333334</v>
+        <v>45124.208333333343</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2631,12 +2671,12 @@
         <v>742</v>
       </c>
       <c r="F31">
-        <v>0.2766592095451156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.27665920954511558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45131.20833333334</v>
+        <v>45131.208333333343</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -2651,12 +2691,12 @@
         <v>876</v>
       </c>
       <c r="F32">
-        <v>0.1682027649769585</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.16820276497695849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45138.20833333334</v>
+        <v>45138.208333333343</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -2674,9 +2714,9 @@
         <v>0.2047101449275362</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45145.20833333334</v>
+        <v>45145.208333333343</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -2691,12 +2731,12 @@
         <v>537</v>
       </c>
       <c r="F34">
-        <v>0.2031782065834279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.20317820658342789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45152.20833333334</v>
+        <v>45152.208333333343</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -2714,9 +2754,9 @@
         <v>0.2283687943262411</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45159.20833333334</v>
+        <v>45159.208333333343</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -2734,9 +2774,9 @@
         <v>0.1065192083818393</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45166.20833333334</v>
+        <v>45166.208333333343</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -2751,12 +2791,12 @@
         <v>549</v>
       </c>
       <c r="F37">
-        <v>0.290169133192389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.29016913319238902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45173.20833333334</v>
+        <v>45173.208333333343</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -2771,12 +2811,12 @@
         <v>1396</v>
       </c>
       <c r="F38">
-        <v>0.1126715092816788</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.11267150928167879</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45180.20833333334</v>
+        <v>45180.208333333343</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -2791,12 +2831,12 @@
         <v>880</v>
       </c>
       <c r="F39">
-        <v>0.2443087173792338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.24430871737923379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45187.20833333334</v>
+        <v>45187.208333333343</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -2811,12 +2851,12 @@
         <v>516</v>
       </c>
       <c r="F40">
-        <v>0.2279151943462898</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.22791519434628979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45194.20833333334</v>
+        <v>45194.208333333343</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -2831,12 +2871,12 @@
         <v>440</v>
       </c>
       <c r="F41">
-        <v>0.1269474899019042</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.12694748990190419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45201.20833333334</v>
+        <v>45201.208333333343</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -2851,12 +2891,12 @@
         <v>575</v>
       </c>
       <c r="F42">
-        <v>0.1834130781499203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.18341307814992031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45208.20833333334</v>
+        <v>45208.208333333343</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -2871,12 +2911,12 @@
         <v>288</v>
       </c>
       <c r="F43">
-        <v>0.1455280444669025</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.14552804446690251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45215.20833333334</v>
+        <v>45215.208333333343</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -2894,9 +2934,9 @@
         <v>0.1211913728175282</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45222.20833333334</v>
+        <v>45222.208333333343</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -2911,12 +2951,12 @@
         <v>785</v>
       </c>
       <c r="F45">
-        <v>0.2276682134570766</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.22766821345707661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45229.20833333334</v>
+        <v>45229.208333333343</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -2931,12 +2971,12 @@
         <v>2186</v>
       </c>
       <c r="F46">
-        <v>0.2838592390598624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.28385923905986238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45236.20833333334</v>
+        <v>45236.208333333343</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -2954,9 +2994,9 @@
         <v>0.2121613942034476</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45243.20833333334</v>
+        <v>45243.208333333343</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -2971,12 +3011,12 @@
         <v>1406</v>
       </c>
       <c r="F48">
-        <v>0.2002563737359351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.20025637373593511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45250.20833333334</v>
+        <v>45250.208333333343</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -2991,12 +3031,12 @@
         <v>1082</v>
       </c>
       <c r="F49">
-        <v>0.2619854721549637</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.26198547215496371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45257.20833333334</v>
+        <v>45257.208333333343</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -3011,12 +3051,12 @@
         <v>217</v>
       </c>
       <c r="F50">
-        <v>0.1730462519936204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.17304625199362039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45264.20833333334</v>
+        <v>45264.208333333343</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3031,12 +3071,12 @@
         <v>1332</v>
       </c>
       <c r="F51">
-        <v>0.268873637464675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.26887363746467502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45271.20833333334</v>
+        <v>45271.208333333343</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -3054,9 +3094,9 @@
         <v>0.2114537444933921</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45278.20833333334</v>
+        <v>45278.208333333343</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -3071,12 +3111,12 @@
         <v>824</v>
       </c>
       <c r="F53">
-        <v>0.3346872461413485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.33468724614134848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45285.20833333334</v>
+        <v>45285.208333333343</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -3091,12 +3131,12 @@
         <v>2018</v>
       </c>
       <c r="F54">
-        <v>0.3886748844375963</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.38867488443759629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45292.20833333334</v>
+        <v>45292.208333333343</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3111,12 +3151,12 @@
         <v>747</v>
       </c>
       <c r="F55">
-        <v>0.2682226211849192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.26822262118491919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45299.20833333334</v>
+        <v>45299.208333333343</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3131,12 +3171,12 @@
         <v>1469</v>
       </c>
       <c r="F56">
-        <v>0.2710332103321033</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.27103321033210331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45306.20833333334</v>
+        <v>45306.208333333343</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3151,12 +3191,12 @@
         <v>770</v>
       </c>
       <c r="F57">
-        <v>0.2051145444858817</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.20511454448588171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45313.20833333334</v>
+        <v>45313.208333333343</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3174,9 +3214,9 @@
         <v>0.1375757575757576</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45320.20833333334</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3194,9 +3234,9 @@
         <v>0.1819551389353867</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45327.20833333334</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3211,12 +3251,12 @@
         <v>794</v>
       </c>
       <c r="F60">
-        <v>0.1571343756184445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.15713437561844451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45334.20833333334</v>
+        <v>45334.208333333343</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3231,12 +3271,12 @@
         <v>526</v>
       </c>
       <c r="F61">
-        <v>0.1370148476165668</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.13701484761656679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45341.20833333334</v>
+        <v>45341.208333333343</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -3251,12 +3291,12 @@
         <v>764</v>
       </c>
       <c r="F62">
-        <v>0.2102366538249862</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.21023665382498621</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45348.20833333334</v>
+        <v>45348.208333333343</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -3274,9 +3314,9 @@
         <v>0.1387618176273254</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45355.20833333334</v>
+        <v>45355.208333333343</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3291,12 +3331,12 @@
         <v>212</v>
       </c>
       <c r="F64">
-        <v>0.1549707602339181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.15497076023391809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45362.20833333334</v>
+        <v>45362.208333333343</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -3311,12 +3351,12 @@
         <v>585</v>
       </c>
       <c r="F65">
-        <v>0.3327645051194539</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.33276450511945388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45369.20833333334</v>
+        <v>45369.208333333343</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3331,12 +3371,12 @@
         <v>261</v>
       </c>
       <c r="F66">
-        <v>0.1178861788617886</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.11788617886178859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45376.20833333334</v>
+        <v>45376.208333333343</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -3351,12 +3391,12 @@
         <v>337</v>
       </c>
       <c r="F67">
-        <v>0.1418350168350168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.14183501683501679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45383.20833333334</v>
+        <v>45383.208333333343</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -3371,12 +3411,12 @@
         <v>968</v>
       </c>
       <c r="F68">
-        <v>0.3197885695407995</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.31978856954079948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45390.20833333334</v>
+        <v>45390.208333333343</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -3391,12 +3431,12 @@
         <v>658</v>
       </c>
       <c r="F69">
-        <v>0.2202879142952796</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.22028791429527961</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45397.20833333334</v>
+        <v>45397.208333333343</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -3411,12 +3451,12 @@
         <v>1210</v>
       </c>
       <c r="F70">
-        <v>0.2874792112140651</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.28747921121406511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45404.20833333334</v>
+        <v>45404.208333333343</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -3434,9 +3474,9 @@
         <v>0.1055979643765903</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45411.20833333334</v>
+        <v>45411.208333333343</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -3451,12 +3491,12 @@
         <v>327</v>
       </c>
       <c r="F72">
-        <v>0.2248968363136176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.22489683631361759</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45418.20833333334</v>
+        <v>45418.208333333343</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3474,9 +3514,9 @@
         <v>0.2088655146506386</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45425.20833333334</v>
+        <v>45425.208333333343</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3494,9 +3534,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45432.20833333334</v>
+        <v>45432.208333333343</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3511,12 +3551,12 @@
         <v>505</v>
       </c>
       <c r="F75">
-        <v>0.3558844256518675</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.35588442565186751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45439.20833333334</v>
+        <v>45439.208333333343</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3531,12 +3571,12 @@
         <v>262</v>
       </c>
       <c r="F76">
-        <v>0.2058130400628437</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.20581304006284371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45446.20833333334</v>
+        <v>45446.208333333343</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -3551,12 +3591,12 @@
         <v>634</v>
       </c>
       <c r="F77">
-        <v>0.3395822174611676</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.33958221746116762</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45453.20833333334</v>
+        <v>45453.208333333343</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -3571,12 +3611,12 @@
         <v>842</v>
       </c>
       <c r="F78">
-        <v>0.3964218455743879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.39642184557438792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45460.20833333334</v>
+        <v>45460.208333333343</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -3594,9 +3634,9 @@
         <v>0.2504837669318426</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45467.20833333334</v>
+        <v>45467.208333333343</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -3611,7 +3651,7 @@
         <v>894</v>
       </c>
       <c r="F80">
-        <v>0.1898492248885114</v>
+        <v>0.18984922488851139</v>
       </c>
     </row>
   </sheetData>
@@ -3620,14 +3660,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3647,9 +3692,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44921.20833333334</v>
+        <v>44921.208333333343</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -3664,12 +3709,12 @@
         <v>54</v>
       </c>
       <c r="F2">
-        <v>0.2535211267605634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.25352112676056338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44928.20833333334</v>
+        <v>44928.208333333343</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3684,12 +3729,12 @@
         <v>451</v>
       </c>
       <c r="F3">
-        <v>0.1973741794310722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.19737417943107219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44935.20833333334</v>
+        <v>44935.208333333343</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3707,9 +3752,9 @@
         <v>0.1171390013495277</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44942.20833333334</v>
+        <v>44942.208333333343</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3724,12 +3769,12 @@
         <v>1702</v>
       </c>
       <c r="F5">
-        <v>0.3671268334771355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.36712683347713548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44949.20833333334</v>
+        <v>44949.208333333343</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3744,12 +3789,12 @@
         <v>861</v>
       </c>
       <c r="F6">
-        <v>0.111949031335327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.11194903133532701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44956.20833333334</v>
+        <v>44956.208333333343</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3764,12 +3809,12 @@
         <v>465</v>
       </c>
       <c r="F7">
-        <v>0.1053943789664551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.10539437896645509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44963.20833333334</v>
+        <v>44963.208333333343</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3784,12 +3829,12 @@
         <v>403</v>
       </c>
       <c r="F8">
-        <v>0.1439285714285714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.14392857142857141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44970.20833333334</v>
+        <v>44970.208333333343</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3804,12 +3849,12 @@
         <v>349</v>
       </c>
       <c r="F9">
-        <v>0.1451747088186356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.14517470881863559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44977.20833333334</v>
+        <v>44977.208333333343</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3827,9 +3872,9 @@
         <v>0.1224096385542169</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44984.20833333334</v>
+        <v>44984.208333333343</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3844,12 +3889,12 @@
         <v>388</v>
       </c>
       <c r="F11">
-        <v>0.1402240693892302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.14022406938923021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44991.20833333334</v>
+        <v>44991.208333333343</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -3864,12 +3909,12 @@
         <v>244</v>
       </c>
       <c r="F12">
-        <v>0.09395456295725838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>9.3954562957258375E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44998.20833333334</v>
+        <v>44998.208333333343</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3884,12 +3929,12 @@
         <v>288</v>
       </c>
       <c r="F13">
-        <v>0.09822646657571624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>9.8226466575716237E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45005.20833333334</v>
+        <v>45005.208333333343</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3904,12 +3949,12 @@
         <v>465</v>
       </c>
       <c r="F14">
-        <v>0.1028988714317327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.10289887143173269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>45012.20833333334</v>
+        <v>45012.208333333343</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -3924,12 +3969,12 @@
         <v>598</v>
       </c>
       <c r="F15">
-        <v>0.1439229843561974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.14392298435619741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>45019.20833333334</v>
+        <v>45019.208333333343</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -3944,12 +3989,12 @@
         <v>493</v>
       </c>
       <c r="F16">
-        <v>0.08973425555151074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>8.9734255551510739E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45026.20833333334</v>
+        <v>45026.208333333343</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -3967,9 +4012,9 @@
         <v>0.1526943252265141</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45033.20833333334</v>
+        <v>45033.208333333343</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3987,9 +4032,9 @@
         <v>0.1780985915492958</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45040.20833333334</v>
+        <v>45040.208333333343</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4004,12 +4049,12 @@
         <v>1347</v>
       </c>
       <c r="F19">
-        <v>0.08838582677165355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>8.8385826771653547E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>45047.20833333334</v>
+        <v>45047.208333333343</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -4024,12 +4069,12 @@
         <v>682</v>
       </c>
       <c r="F20">
-        <v>0.085678391959799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>8.5678391959798997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>45054.20833333334</v>
+        <v>45054.208333333343</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -4044,12 +4089,12 @@
         <v>426</v>
       </c>
       <c r="F21">
-        <v>0.0955585464333782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>9.5558546433378203E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>45061.20833333334</v>
+        <v>45061.208333333343</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -4064,12 +4109,12 @@
         <v>585</v>
       </c>
       <c r="F22">
-        <v>0.1795029150046026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.17950291500460261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>45068.20833333334</v>
+        <v>45068.208333333343</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -4084,12 +4129,12 @@
         <v>310</v>
       </c>
       <c r="F23">
-        <v>0.1283643892339545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.12836438923395449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>45075.20833333334</v>
+        <v>45075.208333333343</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -4107,9 +4152,9 @@
         <v>0.1064991807755325</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>45082.20833333334</v>
+        <v>45082.208333333343</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -4127,9 +4172,9 @@
         <v>0.1053614297145906</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>45089.20833333334</v>
+        <v>45089.208333333343</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -4144,12 +4189,12 @@
         <v>347</v>
       </c>
       <c r="F26">
-        <v>0.1033661006851355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.10336610068513551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45096.20833333334</v>
+        <v>45096.208333333343</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -4164,12 +4209,12 @@
         <v>358</v>
       </c>
       <c r="F27">
-        <v>0.074212271973466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>7.4212271973465999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45103.20833333334</v>
+        <v>45103.208333333343</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -4184,12 +4229,12 @@
         <v>333</v>
       </c>
       <c r="F28">
-        <v>0.07859334434741562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>7.859334434741562E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45110.20833333334</v>
+        <v>45110.208333333343</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -4204,12 +4249,12 @@
         <v>344</v>
       </c>
       <c r="F29">
-        <v>0.07763484540735725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>7.7634845407357253E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45117.20833333334</v>
+        <v>45117.208333333343</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -4224,12 +4269,12 @@
         <v>352</v>
       </c>
       <c r="F30">
-        <v>0.1279069767441861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.12790697674418611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45124.20833333334</v>
+        <v>45124.208333333343</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -4244,12 +4289,12 @@
         <v>315</v>
       </c>
       <c r="F31">
-        <v>0.1402493321460374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.14024933214603741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45131.20833333334</v>
+        <v>45131.208333333343</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -4264,12 +4309,12 @@
         <v>428</v>
       </c>
       <c r="F32">
-        <v>0.161266013564431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.16126601356443099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45138.20833333334</v>
+        <v>45138.208333333343</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -4287,9 +4332,9 @@
         <v>0.1250384024577573</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45145.20833333334</v>
+        <v>45145.208333333343</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4307,9 +4352,9 @@
         <v>0.1040587219343696</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45152.20833333334</v>
+        <v>45152.208333333343</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4327,9 +4372,9 @@
         <v>0.1708762082943561</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45159.20833333334</v>
+        <v>45159.208333333343</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4347,9 +4392,9 @@
         <v>0.1166134185303514</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45166.20833333334</v>
+        <v>45166.208333333343</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4367,9 +4412,9 @@
         <v>0.1014989293361884</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45173.20833333334</v>
+        <v>45173.208333333343</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -4384,12 +4429,12 @@
         <v>253</v>
       </c>
       <c r="F38">
-        <v>0.09972408356326369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>9.9724083563263691E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45180.20833333334</v>
+        <v>45180.208333333343</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -4407,9 +4452,9 @@
         <v>0.1029844472467423</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45187.20833333334</v>
+        <v>45187.208333333343</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -4427,9 +4472,9 @@
         <v>0.127587184576127</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45194.20833333334</v>
+        <v>45194.208333333343</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -4444,12 +4489,12 @@
         <v>411</v>
       </c>
       <c r="F41">
-        <v>0.1303107165504122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.13031071655041221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45201.20833333334</v>
+        <v>45201.208333333343</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -4467,9 +4512,9 @@
         <v>0.1185635067335622</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45208.20833333334</v>
+        <v>45208.208333333343</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -4487,9 +4532,9 @@
         <v>0.1096381225367252</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45215.20833333334</v>
+        <v>45215.208333333343</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -4504,12 +4549,12 @@
         <v>366</v>
       </c>
       <c r="F44">
-        <v>0.09256449165402124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>9.2564491654021239E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45222.20833333334</v>
+        <v>45222.208333333343</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -4524,12 +4569,12 @@
         <v>207</v>
       </c>
       <c r="F45">
-        <v>0.07263157894736842</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>7.2631578947368422E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45229.20833333334</v>
+        <v>45229.208333333343</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -4544,12 +4589,12 @@
         <v>2491</v>
       </c>
       <c r="F46">
-        <v>0.1571311423705292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.15713114237052919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45236.20833333334</v>
+        <v>45236.208333333343</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -4567,9 +4612,9 @@
         <v>0.1165675446049278</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45243.20833333334</v>
+        <v>45243.208333333343</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -4587,9 +4632,9 @@
         <v>0.116504854368932</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45250.20833333334</v>
+        <v>45250.208333333343</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -4607,9 +4652,9 @@
         <v>0.2286402584248132</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45257.20833333334</v>
+        <v>45257.208333333343</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -4627,9 +4672,9 @@
         <v>0.1129381220250974</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45264.20833333334</v>
+        <v>45264.208333333343</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -4644,12 +4689,12 @@
         <v>745</v>
       </c>
       <c r="F51">
-        <v>0.1935064935064935</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.19350649350649349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45271.20833333334</v>
+        <v>45271.208333333343</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -4667,9 +4712,9 @@
         <v>0.1088215258855586</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45278.20833333334</v>
+        <v>45278.208333333343</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -4684,12 +4729,12 @@
         <v>596</v>
       </c>
       <c r="F53">
-        <v>0.176279207335108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.17627920733510799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45285.20833333334</v>
+        <v>45285.208333333343</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -4704,12 +4749,12 @@
         <v>1847</v>
       </c>
       <c r="F54">
-        <v>0.3029358701000492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.30293587010004919</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45292.20833333334</v>
+        <v>45292.208333333343</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4724,12 +4769,12 @@
         <v>464</v>
       </c>
       <c r="F55">
-        <v>0.1644806806097129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.16448068060971291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45299.20833333334</v>
+        <v>45299.208333333343</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4744,12 +4789,12 @@
         <v>799</v>
       </c>
       <c r="F56">
-        <v>0.1432926829268293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.14329268292682931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45306.20833333334</v>
+        <v>45306.208333333343</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4764,12 +4809,12 @@
         <v>623</v>
       </c>
       <c r="F57">
-        <v>0.1504467519922724</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.15044675199227239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45313.20833333334</v>
+        <v>45313.208333333343</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4787,9 +4832,9 @@
         <v>0.1178131416837782</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45320.20833333334</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4807,9 +4852,9 @@
         <v>0.1330547613811304</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45327.20833333334</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4824,12 +4869,12 @@
         <v>388</v>
       </c>
       <c r="F60">
-        <v>0.09138012246820537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>9.1380122468205371E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45334.20833333334</v>
+        <v>45334.208333333343</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4847,9 +4892,9 @@
         <v>0.1066945606694561</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45341.20833333334</v>
+        <v>45341.208333333343</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4867,9 +4912,9 @@
         <v>0.1184556296745502</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45348.20833333334</v>
+        <v>45348.208333333343</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -4884,12 +4929,12 @@
         <v>567</v>
       </c>
       <c r="F63">
-        <v>0.1224886584575502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.12248865845755021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45355.20833333334</v>
+        <v>45355.208333333343</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4904,12 +4949,12 @@
         <v>556</v>
       </c>
       <c r="F64">
-        <v>0.148069241011984</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.14806924101198399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45362.20833333334</v>
+        <v>45362.208333333343</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4927,9 +4972,9 @@
         <v>0.1394230769230769</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45369.20833333334</v>
+        <v>45369.208333333343</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4947,9 +4992,9 @@
         <v>0.1507706053160599</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45376.20833333334</v>
+        <v>45376.208333333343</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4967,9 +5012,9 @@
         <v>0.1007804546996946</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45383.20833333334</v>
+        <v>45383.208333333343</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -4984,12 +5029,12 @@
         <v>821</v>
       </c>
       <c r="F68">
-        <v>0.1579149836507021</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.15791498365070211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45390.20833333334</v>
+        <v>45390.208333333343</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5007,9 +5052,9 @@
         <v>0.1275024847366179</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45397.20833333334</v>
+        <v>45397.208333333343</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -5027,9 +5072,9 @@
         <v>0.1175324675324675</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45404.20833333334</v>
+        <v>45404.208333333343</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -5047,9 +5092,9 @@
         <v>0.1032068654019874</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45411.20833333334</v>
+        <v>45411.208333333343</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -5067,9 +5112,9 @@
         <v>0.1217443973349485</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45418.20833333334</v>
+        <v>45418.208333333343</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -5087,9 +5132,9 @@
         <v>0.1862939139040079</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45425.20833333334</v>
+        <v>45425.208333333343</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -5104,12 +5149,12 @@
         <v>469</v>
       </c>
       <c r="F74">
-        <v>0.09776943923285386</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>9.7769439232853861E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45432.20833333334</v>
+        <v>45432.208333333343</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -5127,9 +5172,9 @@
         <v>0.1069465267366317</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45439.20833333334</v>
+        <v>45439.208333333343</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -5147,9 +5192,9 @@
         <v>0.1291645310097386</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45446.20833333334</v>
+        <v>45446.208333333343</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -5164,12 +5209,12 @@
         <v>654</v>
       </c>
       <c r="F77">
-        <v>0.1309047237790232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.13090472377902321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45453.20833333334</v>
+        <v>45453.208333333343</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -5187,9 +5232,9 @@
         <v>0.1204019379149471</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45460.20833333334</v>
+        <v>45460.208333333343</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -5204,12 +5249,12 @@
         <v>1010</v>
       </c>
       <c r="F79">
-        <v>0.1918693009118541</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.19186930091185411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45467.20833333334</v>
+        <v>45467.208333333343</v>
       </c>
       <c r="B80">
         <v>6</v>
